--- a/WinterQuarterClasses.xlsx
+++ b/WinterQuarterClasses.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralph III\Documents\#CSCD488\doc\FishSeniorProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Monday</t>
   </si>
@@ -40,13 +45,22 @@
   </si>
   <si>
     <t>Senior Project</t>
+  </si>
+  <si>
+    <t>Stacy &amp; Ralph Class</t>
+  </si>
+  <si>
+    <t>Ralph Class</t>
+  </si>
+  <si>
+    <t>Ralph Class Ends @ 3:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,6 +88,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -87,16 +107,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -143,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,9 +204,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,14 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
@@ -399,7 +430,7 @@
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -416,44 +447,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -470,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -479,7 +520,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -488,7 +529,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -501,45 +542,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
